--- a/apiData/ui-autotest.xlsx
+++ b/apiData/ui-autotest.xlsx
@@ -15,12 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
-  <si>
-    <t>userName</t>
-  </si>
-  <si>
-    <t>userPassword</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+  <si>
+    <t>model</t>
   </si>
   <si>
     <t>URL</t>
@@ -29,10 +26,7 @@
     <t>METHOD</t>
   </si>
   <si>
-    <t>RESULT</t>
-  </si>
-  <si>
-    <t>EXPECT</t>
+    <t>ASSERT</t>
   </si>
   <si>
     <t>DATABASE_ASSERT</t>
@@ -59,10 +53,7 @@
     <t>RESTORE</t>
   </si>
   <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>000000</t>
+    <t>{"userName":"admin","force":null,"userPassword":"000000"}</t>
   </si>
   <si>
     <t>http://120.52.96.35:20580/AppAutoTest/users/login.do</t>
@@ -71,13 +62,7 @@
     <t>post</t>
   </si>
   <si>
-    <t>response_json["return_message"]</t>
-  </si>
-  <si>
-    <t>登录成功</t>
-  </si>
-  <si>
-    <t>userName=admin-userPassword=000000</t>
+    <t>self.response_json["return_message"] == 登录成功</t>
   </si>
   <si>
     <t>forward</t>
@@ -95,7 +80,10 @@
     <t>http://120.52.96.35:20580/AppAutoTest/appFile/uploadFile.do</t>
   </si>
   <si>
-    <t>文件上传成功</t>
+    <t>self.response_json["return_message"] == 文件上传成功</t>
+  </si>
+  <si>
+    <t>login</t>
   </si>
   <si>
     <t>uploadFile-file.txt</t>
@@ -106,10 +94,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -142,8 +130,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,114 +214,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,187 +274,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,6 +492,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -521,20 +533,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,24 +557,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,145 +573,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -745,9 +733,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1097,10 +1082,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -1108,6 +1093,7 @@
     <col min="1" max="1" width="13.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="15.8888888888889" customWidth="1"/>
     <col min="3" max="3" width="15.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="9.88888888888889" customWidth="1"/>
     <col min="5" max="5" width="11.3333333333333" customWidth="1"/>
     <col min="6" max="6" width="9.11111111111111" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
@@ -1119,11 +1105,11 @@
     <col min="14" max="14" width="11.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:14">
+    <row r="1" ht="31" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1132,13 +1118,13 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -1156,44 +1142,30 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+    </row>
+    <row r="2" ht="79" customHeight="1" spans="1:12">
+      <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" ht="79" customHeight="1" spans="1:14">
-      <c r="A2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="I2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1205,14 +1177,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
+    <col min="1" max="1" width="10.4444444444444" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="12.6666666666667" customWidth="1"/>
     <col min="7" max="7" width="18.5555555555556" customWidth="1"/>
@@ -1223,79 +1196,75 @@
     <col min="14" max="14" width="13.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38" customHeight="1" spans="1:14">
+    <row r="1" ht="38" customHeight="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="2" ht="86" customHeight="1" spans="1:14">
+    <row r="2" ht="86" customHeight="1" spans="1:13">
       <c r="A2" s="4">
         <v>255</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="K2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
